--- a/data/Quarterly/IMF/PPI_Lux.xlsx
+++ b/data/Quarterly/IMF/PPI_Lux.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD102"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
